--- a/해커톤/온도6개월이내.xlsx
+++ b/해커톤/온도6개월이내.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FFBF46-C98D-4C1B-8ABC-0580A48EE942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3090" yWindow="8685" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="232">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -43,6 +57,9 @@
     <t>video_length</t>
   </si>
   <si>
+    <t>youtuber_name</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/f80KUtt-zcc/hqdefault.jpg?sqp=-oaymwEZCNACELwBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLAYzqGrm-aM88vIgDBQt24VNPc2hw</t>
   </si>
   <si>
@@ -704,20 +721,23 @@
   </si>
   <si>
     <t>22:35</t>
+  </si>
+  <si>
+    <t>온도</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -725,7 +745,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -735,6 +755,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -782,19 +809,27 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -836,7 +871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,9 +903,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -902,6 +955,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1077,14 +1148,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,8 +1185,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1121,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F2">
         <v>504859</v>
@@ -1142,10 +1218,13 @@
         <v>43824</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1153,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3">
         <v>581858</v>
@@ -1174,10 +1253,13 @@
         <v>43816</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1185,13 +1267,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4">
         <v>701797</v>
@@ -1206,10 +1288,13 @@
         <v>43814</v>
       </c>
       <c r="J4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1217,13 +1302,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5">
         <v>1507824</v>
@@ -1238,10 +1323,13 @@
         <v>43470</v>
       </c>
       <c r="J5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1249,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F6">
         <v>745305</v>
@@ -1270,10 +1358,13 @@
         <v>43796</v>
       </c>
       <c r="J6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1281,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F7">
         <v>662404</v>
@@ -1302,10 +1393,13 @@
         <v>43789</v>
       </c>
       <c r="J7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1313,13 +1407,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8">
         <v>661249</v>
@@ -1334,10 +1428,13 @@
         <v>43782</v>
       </c>
       <c r="J8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1345,13 +1442,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9">
         <v>494147</v>
@@ -1366,10 +1463,13 @@
         <v>43474</v>
       </c>
       <c r="J9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1377,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F10">
         <v>692660</v>
@@ -1398,10 +1498,13 @@
         <v>43467</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1409,13 +1512,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>685696</v>
@@ -1430,10 +1533,13 @@
         <v>43762</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1441,13 +1547,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12">
         <v>1047857</v>
@@ -1462,10 +1568,13 @@
         <v>43755</v>
       </c>
       <c r="J12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1473,13 +1582,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F13">
         <v>739265</v>
@@ -1494,10 +1603,13 @@
         <v>43750</v>
       </c>
       <c r="J13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="K13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1505,13 +1617,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14">
         <v>775384</v>
@@ -1526,10 +1638,13 @@
         <v>43471</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1537,13 +1652,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F15">
         <v>847866</v>
@@ -1558,10 +1673,13 @@
         <v>43737</v>
       </c>
       <c r="J15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1569,13 +1687,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F16">
         <v>706622</v>
@@ -1590,10 +1708,13 @@
         <v>43727</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1601,13 +1722,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F17">
         <v>458626</v>
@@ -1622,10 +1743,13 @@
         <v>43720</v>
       </c>
       <c r="J17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1633,13 +1757,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F18">
         <v>690253</v>
@@ -1654,10 +1778,13 @@
         <v>43718</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1665,13 +1792,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F19">
         <v>1291302</v>
@@ -1686,10 +1813,13 @@
         <v>43710</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1697,13 +1827,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F20">
         <v>521914</v>
@@ -1718,10 +1848,13 @@
         <v>43707</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1729,13 +1862,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F21">
         <v>734094</v>
@@ -1750,10 +1883,13 @@
         <v>43701</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1761,13 +1897,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22">
         <v>639017</v>
@@ -1782,10 +1918,13 @@
         <v>43695</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1793,13 +1932,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23">
         <v>922464</v>
@@ -1814,10 +1953,13 @@
         <v>43687</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1825,13 +1967,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F24">
         <v>639364</v>
@@ -1846,10 +1988,13 @@
         <v>43676</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1857,13 +2002,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F25">
         <v>1091148</v>
@@ -1878,10 +2023,13 @@
         <v>43671</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1889,13 +2037,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26">
         <v>850712</v>
@@ -1910,10 +2058,13 @@
         <v>43660</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1921,13 +2072,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F27">
         <v>438121</v>
@@ -1942,10 +2093,13 @@
         <v>43656</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1953,13 +2107,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F28">
         <v>453143</v>
@@ -1974,10 +2128,13 @@
         <v>43654</v>
       </c>
       <c r="J28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>199</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1985,13 +2142,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F29">
         <v>1017659</v>
@@ -2006,10 +2163,13 @@
         <v>43649</v>
       </c>
       <c r="J29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>200</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2017,13 +2177,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F30">
         <v>625853</v>
@@ -2038,10 +2198,13 @@
         <v>43639</v>
       </c>
       <c r="J30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>201</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2049,13 +2212,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F31">
         <v>799908</v>
@@ -2070,10 +2233,13 @@
         <v>43631</v>
       </c>
       <c r="J31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2081,13 +2247,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F32">
         <v>1063101</v>
@@ -2102,10 +2268,13 @@
         <v>43620</v>
       </c>
       <c r="J32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>202</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2113,13 +2282,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F33">
         <v>707180</v>
@@ -2134,10 +2303,13 @@
         <v>43614</v>
       </c>
       <c r="J33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>203</v>
+      </c>
+      <c r="K33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2145,13 +2317,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F34">
         <v>492896</v>
@@ -2166,10 +2338,13 @@
         <v>43612</v>
       </c>
       <c r="J34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>204</v>
+      </c>
+      <c r="K34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2177,13 +2352,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F35">
         <v>782212</v>
@@ -2198,10 +2373,13 @@
         <v>43607</v>
       </c>
       <c r="J35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>205</v>
+      </c>
+      <c r="K35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2209,13 +2387,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F36">
         <v>961934</v>
@@ -2230,10 +2408,13 @@
         <v>43602</v>
       </c>
       <c r="J36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>206</v>
+      </c>
+      <c r="K36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2241,13 +2422,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F37">
         <v>936828</v>
@@ -2262,10 +2443,13 @@
         <v>43597</v>
       </c>
       <c r="J37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2273,13 +2457,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F38">
         <v>931125</v>
@@ -2294,10 +2478,13 @@
         <v>43594</v>
       </c>
       <c r="J38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>208</v>
+      </c>
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2305,13 +2492,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F39">
         <v>1783525</v>
@@ -2326,10 +2513,13 @@
         <v>43583</v>
       </c>
       <c r="J39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>209</v>
+      </c>
+      <c r="K39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2337,13 +2527,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F40">
         <v>743618</v>
@@ -2358,10 +2548,13 @@
         <v>43579</v>
       </c>
       <c r="J40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>210</v>
+      </c>
+      <c r="K40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2369,13 +2562,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F41">
         <v>1038518</v>
@@ -2390,10 +2583,13 @@
         <v>43566</v>
       </c>
       <c r="J41" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>189</v>
+      </c>
+      <c r="K41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2401,13 +2597,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F42">
         <v>682345</v>
@@ -2422,10 +2618,13 @@
         <v>43555</v>
       </c>
       <c r="J42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>200</v>
+      </c>
+      <c r="K42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2433,13 +2632,13 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F43">
         <v>989986</v>
@@ -2454,10 +2653,13 @@
         <v>43545</v>
       </c>
       <c r="J43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>211</v>
+      </c>
+      <c r="K43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2465,13 +2667,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F44">
         <v>892169</v>
@@ -2486,10 +2688,13 @@
         <v>43535</v>
       </c>
       <c r="J44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>212</v>
+      </c>
+      <c r="K44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2497,13 +2702,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F45">
         <v>1256094</v>
@@ -2518,10 +2723,13 @@
         <v>43527</v>
       </c>
       <c r="J45" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>213</v>
+      </c>
+      <c r="K45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2529,13 +2737,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F46">
         <v>572440</v>
@@ -2550,10 +2758,13 @@
         <v>43517</v>
       </c>
       <c r="J46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>214</v>
+      </c>
+      <c r="K46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2561,13 +2772,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F47">
         <v>770997</v>
@@ -2582,10 +2793,13 @@
         <v>43514</v>
       </c>
       <c r="J47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>215</v>
+      </c>
+      <c r="K47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2593,13 +2807,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F48">
         <v>1110225</v>
@@ -2614,10 +2828,13 @@
         <v>43504</v>
       </c>
       <c r="J48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>216</v>
+      </c>
+      <c r="K48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2625,13 +2842,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F49">
         <v>266590</v>
@@ -2646,10 +2863,13 @@
         <v>43498</v>
       </c>
       <c r="J49" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>217</v>
+      </c>
+      <c r="K49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2657,13 +2877,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F50">
         <v>461497</v>
@@ -2678,10 +2898,13 @@
         <v>43496</v>
       </c>
       <c r="J50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>218</v>
+      </c>
+      <c r="K50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2689,13 +2912,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F51">
         <v>1220031</v>
@@ -2710,10 +2933,13 @@
         <v>43486</v>
       </c>
       <c r="J51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>219</v>
+      </c>
+      <c r="K51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2721,13 +2947,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F52">
         <v>1161664</v>
@@ -2742,10 +2968,13 @@
         <v>43479</v>
       </c>
       <c r="J52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>220</v>
+      </c>
+      <c r="K52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2753,13 +2982,13 @@
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F53">
         <v>641434</v>
@@ -2774,10 +3003,13 @@
         <v>43470</v>
       </c>
       <c r="J53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>221</v>
+      </c>
+      <c r="K53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2785,13 +3017,13 @@
         <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F54">
         <v>704939</v>
@@ -2806,10 +3038,13 @@
         <v>43464</v>
       </c>
       <c r="J54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>222</v>
+      </c>
+      <c r="K54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2817,13 +3052,13 @@
         <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F55">
         <v>445438</v>
@@ -2838,10 +3073,13 @@
         <v>43456</v>
       </c>
       <c r="J55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>223</v>
+      </c>
+      <c r="K55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2849,13 +3087,13 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F56">
         <v>350578</v>
@@ -2870,10 +3108,13 @@
         <v>43453</v>
       </c>
       <c r="J56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>224</v>
+      </c>
+      <c r="K56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2881,13 +3122,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F57">
         <v>739186</v>
@@ -2902,10 +3143,13 @@
         <v>43452</v>
       </c>
       <c r="J57" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>225</v>
+      </c>
+      <c r="K57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2913,13 +3157,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F58">
         <v>514159</v>
@@ -2934,10 +3178,13 @@
         <v>43447</v>
       </c>
       <c r="J58" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>226</v>
+      </c>
+      <c r="K58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2945,13 +3192,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F59">
         <v>686583</v>
@@ -2966,10 +3213,13 @@
         <v>43431</v>
       </c>
       <c r="J59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>227</v>
+      </c>
+      <c r="K59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2977,13 +3227,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F60">
         <v>449025</v>
@@ -2998,10 +3248,13 @@
         <v>43427</v>
       </c>
       <c r="J60" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>228</v>
+      </c>
+      <c r="K60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3009,13 +3262,13 @@
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F61">
         <v>454783</v>
@@ -3030,10 +3283,13 @@
         <v>43424</v>
       </c>
       <c r="J61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>229</v>
+      </c>
+      <c r="K61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3041,13 +3297,13 @@
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F62">
         <v>879216</v>
@@ -3062,72 +3318,76 @@
         <v>43416</v>
       </c>
       <c r="J62" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="K62" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C51" r:id="rId50"/>
-    <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
